--- a/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
+++ b/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\SE-Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85920403-6C75-4B62-8BB4-385D6E5BDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Fragen</t>
   </si>
@@ -32,81 +33,90 @@
     <t>Antworten</t>
   </si>
   <si>
-    <t>Gibt es bestehende Software</t>
-  </si>
-  <si>
-    <t>Soll der Zugriff auf den PC beschränkt werden oder nur auf die Patientendaten</t>
-  </si>
-  <si>
-    <t>Soll das erstellen des Ausdrucks von uns übernommen werden</t>
-  </si>
-  <si>
-    <t>Gibt es ein Technisches Ansprechperson im Unternehmen, die uns unterstützen könnete</t>
-  </si>
-  <si>
-    <t>Wie sieht der geplante Alltag im Umgang mit den Patientenakten aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie sieht der jetzige Alltag im Umgang mit den Patientenakten aus </t>
-  </si>
-  <si>
-    <t>Wo werden die Patientendaten verwaltet</t>
-  </si>
-  <si>
-    <t>Gibt es gewünscht oder bestehende Hardware für Chipkarten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wer ist der Ansprechpartner im Krankenhaus </t>
-  </si>
-  <si>
-    <t>Ist eine Chipkarte Personengebunden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sollen alle Veränderungen der Patientendaten dokumentiert werden (Arbeitsrecht) </t>
-  </si>
-  <si>
     <t>Der Ansprechpartner im Krankenhaus ist Herr Friemert, welcher alle möglichen Rollen spielt</t>
   </si>
   <si>
-    <t>Eine Chipkarte ist personengebunden. Jeder User hat einen Namen und ein Passwort.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es werden </t>
-  </si>
-  <si>
-    <t>Es gibt gewünschte Hardware, welch im Labor F226 abgeholt werden kann.  
-1.RFDI Chip 
-2.Arduino</t>
-  </si>
-  <si>
     <t>Es gibt aktuell keine bestehende Software, welche als Vorlage dienen könnte.</t>
   </si>
   <si>
+    <t>Jede Rolle der Ansprechpartner wird von Herrn Friemert übernommen.</t>
+  </si>
+  <si>
+    <t>Wo werden die Patientendaten verwaltet?</t>
+  </si>
+  <si>
+    <t>Gibt es gewünscht oder bestehende Hardware für Chipkarten?</t>
+  </si>
+  <si>
+    <t>Es gibt gewünschte Hardware, welche im Labor F226 abgeholt werden kann.  
+1. RFID Chip 
+2. Arduino</t>
+  </si>
+  <si>
+    <t>Wer ist der Ansprechpartner im Krankenhaus?</t>
+  </si>
+  <si>
+    <t>Sind die Chipkarten Personengebunden?</t>
+  </si>
+  <si>
+    <t>Jede Chipkarte ist personengebunden. Jeder Chip hat eine ID, die einem bestimmten Nutzer zugewiesen wird.</t>
+  </si>
+  <si>
+    <t>Sollen alle Veränderungen der Patientendaten dokumentiert werden (Arbeitsrecht) ?</t>
+  </si>
+  <si>
+    <t>Es werden Zeitpunkt und Inhalt der Änderung, als auch die ändernde Person gespeichtert.</t>
+  </si>
+  <si>
+    <t>Gibt es bestehende Software?</t>
+  </si>
+  <si>
+    <t>Soll der Zugriff auf den PC beschränkt werden oder nur auf die Patientendaten?</t>
+  </si>
+  <si>
+    <t>Der Zugriff auf den PC ist nicht beschränkt.
+Die Software hingegen erkennt verschiedene Rollen anhand der Logindaten oder dem RFID Chip.
+Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.</t>
+  </si>
+  <si>
     <t>Der Ausdruck soll automatisch generiert werden und dann als PDF an einen Netzwerkdrucker 
-geschickt werden können</t>
-  </si>
-  <si>
-    <t>Der Zugriff auf den PC ist nicht beschränkt.
-Die Software hingegen erkennt verschiedene Rollen anhand des Nuternamens und des Passworts.
-Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.</t>
-  </si>
-  <si>
-    <t>Jede Rolle der Ansprechpartner wird von Herrn Friemert übernommen.</t>
+geschickt werden können.</t>
+  </si>
+  <si>
+    <t>Soll das erstellen des Ausdrucks von uns übernommen werden?</t>
+  </si>
+  <si>
+    <t>//Doppelt mit 5.</t>
+  </si>
+  <si>
+    <t>Wie sieht der geplante Alltag im Umgang mit den Patientenakten aus?</t>
+  </si>
+  <si>
+    <t>Gibt es eine technische Ansprechperson im Unternehmen, die uns unterstützen könnte?</t>
   </si>
   <si>
     <t xml:space="preserve">1. Ein Patient wird behadelt
-2. Artzt gibt an ob es sich um Anamnese oder Untersuchung etc handelt
-3. Artzt gibt zu dem gewählten Thema bestimmte Informationen an
-4. Die Eintragung kann auch zum Beispiel vom Pflegepersonal übernommen werden.
-5. Die Anmeldung mit Benutzername und Passwort dient der Dokumentation im Fall 4). 
-6. Nur Ärtzte dürfen eine Diagnose äußern und Medikamente verschreiben.
+2. Arzt gibt Art der Behandlung an (z.B. Anamnese, Untersuchung)
+3. Arzt gibt zu dem gewählten Thema bestimmte Informationen an und trägt diese in der Patientenakte ein
+4. Die Eintragung kann auch zum Beispiel vom Pflegepersonal übernommen werden, jedoch nur mit Zustimmung / Auftrag des Arztes.
+5. Die Anmeldung mit Benutzername und Passwort dient die Dokumentation im Fall 4). 
+6. Nur Ärzte dürfen eine Diagnose äußern und Medikamente verschreiben.
 </t>
+  </si>
+  <si>
+    <t>// Punkt 5 nicht verständlich    / / Punkt 6 mit Punkt 3/4 doppelt</t>
+  </si>
+  <si>
+    <t>Wie sieht der jetzige Alltag im Umgang mit den Patientenakten aus ?</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,20 +436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="81" customWidth="1"/>
-    <col min="2" max="2" width="80.77734375" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,86 +457,95 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
+++ b/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\SE-Projekt\Dokumentation\01-Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85920403-6C75-4B62-8BB4-385D6E5BDEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9814C-0798-4D90-B0DA-A68D5B13BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Fragen</t>
   </si>
@@ -33,26 +33,12 @@
     <t>Antworten</t>
   </si>
   <si>
-    <t>Der Ansprechpartner im Krankenhaus ist Herr Friemert, welcher alle möglichen Rollen spielt</t>
-  </si>
-  <si>
     <t>Es gibt aktuell keine bestehende Software, welche als Vorlage dienen könnte.</t>
   </si>
   <si>
-    <t>Jede Rolle der Ansprechpartner wird von Herrn Friemert übernommen.</t>
-  </si>
-  <si>
     <t>Wo werden die Patientendaten verwaltet?</t>
   </si>
   <si>
-    <t>Gibt es gewünscht oder bestehende Hardware für Chipkarten?</t>
-  </si>
-  <si>
-    <t>Es gibt gewünschte Hardware, welche im Labor F226 abgeholt werden kann.  
-1. RFID Chip 
-2. Arduino</t>
-  </si>
-  <si>
     <t>Wer ist der Ansprechpartner im Krankenhaus?</t>
   </si>
   <si>
@@ -65,52 +51,77 @@
     <t>Sollen alle Veränderungen der Patientendaten dokumentiert werden (Arbeitsrecht) ?</t>
   </si>
   <si>
-    <t>Es werden Zeitpunkt und Inhalt der Änderung, als auch die ändernde Person gespeichtert.</t>
-  </si>
-  <si>
     <t>Gibt es bestehende Software?</t>
   </si>
   <si>
-    <t>Soll der Zugriff auf den PC beschränkt werden oder nur auf die Patientendaten?</t>
+    <t>Der Ausdruck soll automatisch generiert werden und dann als PDF an einen Netzwerkdrucker 
+geschickt werden können.</t>
+  </si>
+  <si>
+    <t>Soll das erstellen des Ausdrucks von uns übernommen werden?</t>
+  </si>
+  <si>
+    <t>//Doppelt mit 5.</t>
+  </si>
+  <si>
+    <t>Wie sieht der geplante Alltag im Umgang mit den Patientenakten aus?</t>
+  </si>
+  <si>
+    <t>Gibt es eine technische Ansprechperson im Unternehmen, die uns unterstützen könnte?</t>
+  </si>
+  <si>
+    <t>Wie sieht der jetzige Alltag im Umgang mit den Patientenakten aus ?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>// Identisch zu 8 bzw. 13?</t>
+  </si>
+  <si>
+    <t>Gibt es gewünschte oder bestehende Hardware für Chipkarten?</t>
+  </si>
+  <si>
+    <t>Der Ansprechpartner im Krankenhaus ist Herr Friemert, welcher alle möglichen Rollen spielt.</t>
+  </si>
+  <si>
+    <t>Es werden Zeitpunkt und Inhalt der Änderung, als auch die ändernde Person dokumentiert.</t>
+  </si>
+  <si>
+    <t>// Frage undeutlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soll der Zugriff auf den PC beschränkt werden oder nur auf die Patientendaten?
+</t>
   </si>
   <si>
     <t>Der Zugriff auf den PC ist nicht beschränkt.
 Die Software hingegen erkennt verschiedene Rollen anhand der Logindaten oder dem RFID Chip.
-Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.</t>
-  </si>
-  <si>
-    <t>Der Ausdruck soll automatisch generiert werden und dann als PDF an einen Netzwerkdrucker 
-geschickt werden können.</t>
-  </si>
-  <si>
-    <t>Soll das erstellen des Ausdrucks von uns übernommen werden?</t>
-  </si>
-  <si>
-    <t>//Doppelt mit 5.</t>
-  </si>
-  <si>
-    <t>Wie sieht der geplante Alltag im Umgang mit den Patientenakten aus?</t>
-  </si>
-  <si>
-    <t>Gibt es eine technische Ansprechperson im Unternehmen, die uns unterstützen könnte?</t>
+Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.
+Jede Person wird automatisch nach 5 Minuten aus der Software ausgeloggt (Sicherheitsgründe).</t>
+  </si>
+  <si>
+    <t>Es gibt gewünschte Hardware, welche im Labor F226 abgeholt werden kann.  Dazu zählen:
+1. RFID Lesegerät und Chip 
+2. Arduino
+3. Kabel zum PC und Kabel zu dem RFID Leser</t>
+  </si>
+  <si>
+    <t>Herr Friemert übernimmt alle Rollen als Ansprechpartner.</t>
+  </si>
+  <si>
+    <t>// Punkt 2 und 3 repetitiv
+// Punkt 5 nicht verständlich   
+// Punkt 6 mit Punkt 3/4 doppelt</t>
   </si>
   <si>
     <t xml:space="preserve">1. Ein Patient wird behadelt
-2. Arzt gibt Art der Behandlung an (z.B. Anamnese, Untersuchung)
-3. Arzt gibt zu dem gewählten Thema bestimmte Informationen an und trägt diese in der Patientenakte ein
-4. Die Eintragung kann auch zum Beispiel vom Pflegepersonal übernommen werden, jedoch nur mit Zustimmung / Auftrag des Arztes.
-5. Die Anmeldung mit Benutzername und Passwort dient die Dokumentation im Fall 4). 
-6. Nur Ärzte dürfen eine Diagnose äußern und Medikamente verschreiben.
+2. Die Anmeldung mit Benutzername und Passwort dient die Dokumentation im Fall 4).
+3. Arzt gibt Art der Behandlung an (z.B. Anamnese, Untersuchung)
+4. Arzt oder Pflegepersonal gibt zu dem gewählten Thema bestimmte Informationen an und trägt diese in der Patientenakte ein.
+Medikamente und Diagnosen dürfen von Ärzten, oder dem Pflegepersonal im Auftrag der Ärzte eingeragen werden (Abfrage, welcher Arzt Auftrag erteilt hat) 
+5. Manuelle oder automatische Abmeldung nach spätestens 5 Minuten.
 </t>
-  </si>
-  <si>
-    <t>// Punkt 5 nicht verständlich    / / Punkt 6 mit Punkt 3/4 doppelt</t>
-  </si>
-  <si>
-    <t>Wie sieht der jetzige Alltag im Umgang mit den Patientenakten aus ?</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -146,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -156,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,7 +454,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,93 +473,102 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
+      <c r="A9" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
+++ b/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\SE-Projekt\Dokumentation\01-Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D9814C-0798-4D90-B0DA-A68D5B13BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A1850-7251-41D1-8954-FCC87BB22691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Fragen</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Es gibt aktuell keine bestehende Software, welche als Vorlage dienen könnte.</t>
-  </si>
-  <si>
-    <t>Wo werden die Patientendaten verwaltet?</t>
   </si>
   <si>
     <t>Wer ist der Ansprechpartner im Krankenhaus?</t>
@@ -61,9 +58,6 @@
     <t>Soll das erstellen des Ausdrucks von uns übernommen werden?</t>
   </si>
   <si>
-    <t>//Doppelt mit 5.</t>
-  </si>
-  <si>
     <t>Wie sieht der geplante Alltag im Umgang mit den Patientenakten aus?</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>// Identisch zu 8 bzw. 13?</t>
-  </si>
-  <si>
     <t>Gibt es gewünschte oder bestehende Hardware für Chipkarten?</t>
   </si>
   <si>
@@ -86,13 +77,6 @@
   </si>
   <si>
     <t>Es werden Zeitpunkt und Inhalt der Änderung, als auch die ändernde Person dokumentiert.</t>
-  </si>
-  <si>
-    <t>// Frage undeutlich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soll der Zugriff auf den PC beschränkt werden oder nur auf die Patientendaten?
-</t>
   </si>
   <si>
     <t>Der Zugriff auf den PC ist nicht beschränkt.
@@ -107,18 +91,28 @@
 3. Kabel zum PC und Kabel zu dem RFID Leser</t>
   </si>
   <si>
-    <t>Herr Friemert übernimmt alle Rollen als Ansprechpartner.</t>
-  </si>
-  <si>
-    <t>// Punkt 2 und 3 repetitiv
-// Punkt 5 nicht verständlich   
-// Punkt 6 mit Punkt 3/4 doppelt</t>
+    <t>Wie woll das User- Interface aussehen?</t>
+  </si>
+  <si>
+    <t>Das User Interface sollte möglichst intuitiv und einfach zu bedienen sein. Außerdem sollte es ein Feld zum Sperren und Ändern der RFID Chipkarten geben. Die Techniker brauchen ein Adminpanel, welches unter anderem auch Rollen vergeben kann. Jedoch dürfen die Techniker keine empfindlichen Patientendaten lesen oder ändern dürfen.</t>
+  </si>
+  <si>
+    <t>Wo sollen die Patientendaten in zukunft verwaltet werden?</t>
+  </si>
+  <si>
+    <t>In der entwickelten Softwarelösung</t>
+  </si>
+  <si>
+    <t>Meldet man sich auf dem PC oder in dem Programm per RFID Chip an?</t>
+  </si>
+  <si>
+    <t>Der Kunde stellt keinen technischen Ansprechpartner oder Benutzer zur Verfügung.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Ein Patient wird behadelt
 2. Die Anmeldung mit Benutzername und Passwort dient die Dokumentation im Fall 4).
-3. Arzt gibt Art der Behandlung an (z.B. Anamnese, Untersuchung)
-4. Arzt oder Pflegepersonal gibt zu dem gewählten Thema bestimmte Informationen an und trägt diese in der Patientenakte ein.
+3. Der Arzt gibt Art der Behandlung an (z.B. Anamnese, Untersuchung)
+4. Informationen werden vom Arzt oder Pflegepersoneal in die Patientenakte eingetragen
 Medikamente und Diagnosen dürfen von Ärzten, oder dem Pflegepersonal im Auftrag der Ärzte eingeragen werden (Abfrage, welcher Arzt Auftrag erteilt hat) 
 5. Manuelle oder automatische Abmeldung nach spätestens 5 Minuten.
 </t>
@@ -451,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,102 +467,99 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
+++ b/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\SE-Projekt\Dokumentation\01-Analyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\SE-Projekt\Dokumentation\01-Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A1850-7251-41D1-8954-FCC87BB22691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -79,27 +78,15 @@
     <t>Es werden Zeitpunkt und Inhalt der Änderung, als auch die ändernde Person dokumentiert.</t>
   </si>
   <si>
-    <t>Der Zugriff auf den PC ist nicht beschränkt.
-Die Software hingegen erkennt verschiedene Rollen anhand der Logindaten oder dem RFID Chip.
-Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.
-Jede Person wird automatisch nach 5 Minuten aus der Software ausgeloggt (Sicherheitsgründe).</t>
-  </si>
-  <si>
     <t>Es gibt gewünschte Hardware, welche im Labor F226 abgeholt werden kann.  Dazu zählen:
 1. RFID Lesegerät und Chip 
 2. Arduino
 3. Kabel zum PC und Kabel zu dem RFID Leser</t>
   </si>
   <si>
-    <t>Wie woll das User- Interface aussehen?</t>
-  </si>
-  <si>
     <t>Das User Interface sollte möglichst intuitiv und einfach zu bedienen sein. Außerdem sollte es ein Feld zum Sperren und Ändern der RFID Chipkarten geben. Die Techniker brauchen ein Adminpanel, welches unter anderem auch Rollen vergeben kann. Jedoch dürfen die Techniker keine empfindlichen Patientendaten lesen oder ändern dürfen.</t>
   </si>
   <si>
-    <t>Wo sollen die Patientendaten in zukunft verwaltet werden?</t>
-  </si>
-  <si>
     <t>In der entwickelten Softwarelösung</t>
   </si>
   <si>
@@ -109,19 +96,31 @@
     <t>Der Kunde stellt keinen technischen Ansprechpartner oder Benutzer zur Verfügung.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Ein Patient wird behadelt
+    <t>Wo sollen die Patientendaten in Zukunft verwaltet werden?</t>
+  </si>
+  <si>
+    <t>Der Zugriff auf den PC ist nicht beschränkt.
+Die Software hingegen erkennt verschiedene Rollen anhand der Login Daten oder dem RFID Chip.
+Jede Person hat nur eine Rolle. BSP: Ein Techniker darf kein Zugriff auf Krankheitsbestimmte Daten haben.
+Jede Person wird automatisch nach 5 Minuten aus der Software ausgeloggt (Sicherheitsgründe).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ein Patient wird behandelt
 2. Die Anmeldung mit Benutzername und Passwort dient die Dokumentation im Fall 4).
 3. Der Arzt gibt Art der Behandlung an (z.B. Anamnese, Untersuchung)
-4. Informationen werden vom Arzt oder Pflegepersoneal in die Patientenakte eingetragen
-Medikamente und Diagnosen dürfen von Ärzten, oder dem Pflegepersonal im Auftrag der Ärzte eingeragen werden (Abfrage, welcher Arzt Auftrag erteilt hat) 
+4. Informationen werden vom Arzt oder Pflegepersonal in die Patientenakte eingetragen
+Medikamente und Diagnosen dürfen von Ärzten, oder dem Pflegepersonal im Auftrag der Ärzte eingetragen werden (Abfrage, welcher Arzt Auftrag erteilt hat) 
 5. Manuelle oder automatische Abmeldung nach spätestens 5 Minuten.
 </t>
+  </si>
+  <si>
+    <t>Wie soll das User- Interface aussehen?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,24 +146,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -444,122 +478,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" customWidth="1"/>
+    <col min="1" max="1" width="81" style="3" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
+++ b/Dokumentation/01-Analyse/Fragenkatalog_SE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Fragen</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Wie soll das User- Interface aussehen?</t>
+  </si>
+  <si>
+    <t>Sind Pflege und Schwester die gleiche Rolle?</t>
+  </si>
+  <si>
+    <t>Wie kann eine Pflege oder Schwester die Medikamente sehen, wenn sie nicht die Behandlung sieht?</t>
+  </si>
+  <si>
+    <t>Soll Angezeigt werden, wer als letztes was geändert hat?</t>
+  </si>
+  <si>
+    <t>Gibt es Daten, wo die alten Daten nicht angezeigt werden sollen?</t>
   </si>
 </sst>
 </file>
@@ -479,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,6 +608,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
